--- a/docs/role_list.xlsx
+++ b/docs/role_list.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ww_resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF239C-0148-4C35-A592-FF3FC70D0282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB5B650-B0E7-48FB-B09C-9545AF67A561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10930" yWindow="8330" windowWidth="24530" windowHeight="12160" xr2:uid="{CF07D23A-7EB2-4ADE-B2C8-EC685FBADC21}"/>
+    <workbookView xWindow="13370" yWindow="5780" windowWidth="24530" windowHeight="12160" xr2:uid="{CF07D23A-7EB2-4ADE-B2C8-EC685FBADC21}"/>
   </bookViews>
   <sheets>
     <sheet name="custom_role_pile" sheetId="2" r:id="rId1"/>
+    <sheet name="漂泊者" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">漂泊者!$A$1:$B$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>名称</t>
   </si>
@@ -159,6 +163,14 @@
   </si>
   <si>
     <t>漂泊者·气动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +243,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -575,8 +597,8 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -908,6 +930,378 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B40">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE38BDC-3CC0-429F-8BF1-5A826BBB4161}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.9140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1406</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1408</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1501</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1502</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1604</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1605</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1607</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B40" xr:uid="{FBE38BDC-3CC0-429F-8BF1-5A826BBB4161}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="漂泊者·气动"/>
+        <filter val="漂泊者·湮灭"/>
+        <filter val="漂泊者·衍射"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B40">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
